--- a/20210113_check_town_geometry.xlsx
+++ b/20210113_check_town_geometry.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7065" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7068" windowHeight="6936"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="geometry" sheetId="1" r:id="rId1"/>
+    <sheet name="unusual" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>check_town_geo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +195,26 @@
   </si>
   <si>
     <t>A67000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc_unusual_tail</t>
+  </si>
+  <si>
+    <t>deal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FID 1131748 一棟２號
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,6 +282,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,27 +566,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U28" sqref="U27:U28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="20" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -630,7 +656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -701,7 +727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -766,7 +792,7 @@
         <v>37454</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -831,7 +857,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -896,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -979,6 +1005,152 @@
       <c r="W6" s="1">
         <f t="shared" si="0"/>
         <v>0.99861355516450701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>3857</v>
+      </c>
+      <c r="F10">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>2935</v>
+      </c>
+      <c r="H10">
+        <v>749</v>
+      </c>
+      <c r="I10">
+        <v>1340</v>
+      </c>
+      <c r="J10">
+        <v>1757</v>
+      </c>
+      <c r="K10">
+        <v>423</v>
+      </c>
+      <c r="L10">
+        <v>224</v>
+      </c>
+      <c r="M10">
+        <v>224</v>
+      </c>
+      <c r="N10">
+        <v>266</v>
+      </c>
+      <c r="O10">
+        <v>40</v>
+      </c>
+      <c r="P10">
+        <v>5228</v>
+      </c>
+      <c r="Q10">
+        <v>810</v>
+      </c>
+      <c r="R10">
+        <v>1350</v>
+      </c>
+      <c r="S10">
+        <v>7240</v>
+      </c>
+      <c r="T10">
+        <v>1134</v>
+      </c>
+      <c r="U10">
+        <v>5555</v>
+      </c>
+      <c r="V10">
+        <v>1071</v>
+      </c>
+      <c r="W10">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="S12" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -986,4 +1158,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>